--- a/biology/Zoologie/Anniella/Anniella.xlsx
+++ b/biology/Zoologie/Anniella/Anniella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anniella est un genre de sauriens de la famille des Anniellidae[1] (ou de la sous-famille des Anniellinae selon les classifications). C'est le seul genre actuel de cette famille.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anniella est un genre de sauriens de la famille des Anniellidae (ou de la sous-famille des Anniellinae selon les classifications). C'est le seul genre actuel de cette famille.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Californie aux États-Unis et en Basse-Californie au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Californie aux États-Unis et en Basse-Californie au Mexique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des lézards apodes (sans pattes) pouvant atteindre 30 cm, carnivores et vivipares.
 Ils vivent dans des zones plutôt arides, s'enterrant le jour pour échapper à la chaleur et fouillant le sol la nuit à la recherche de proies.
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 décembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 décembre 2013) :
 Anniella alexanderae Papenfuss &amp; Parham, 2013
 Anniella campi Papenfuss &amp; Parham, 2013
 Anniella geronimensis Shaw, 1940
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1852 : Description of several new genera of reptiles, principally from the collection of H.M.S. Herald. Annals and Magazine of Natural History, sér. 2, vol. 10, p. 437-44 (texte intégral).</t>
         </is>
